--- a/src/main/resources/Testdata.xlsx
+++ b/src/main/resources/Testdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>admin</t>
   </si>
@@ -43,13 +43,28 @@
   </si>
   <si>
     <t>asmin</t>
+  </si>
+  <si>
+    <t>Meera</t>
+  </si>
+  <si>
+    <t>Meera123@gmail.com</t>
+  </si>
+  <si>
+    <t>Trainer123</t>
+  </si>
+  <si>
+    <t>trainer@234</t>
+  </si>
+  <si>
+    <t>Meera R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +78,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,9 +110,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -365,7 +387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -373,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -430,6 +452,31 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -440,5 +487,6 @@
     <hyperlink ref="B4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>